--- a/Dクラス進捗管理表.xlsx
+++ b/Dクラス進捗管理表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C02795-2816-496F-9384-B6636867D386}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C5BCCB-5B04-469E-9863-63B0F3805D6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="380" windowWidth="16270" windowHeight="9790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="50" windowWidth="16270" windowHeight="10150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -290,59 +290,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面設計</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能設計</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セッケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>項目定義書</t>
-    <rPh sb="0" eb="5">
-      <t>コウモクテイギショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DB定義書</t>
-    <rPh sb="2" eb="5">
-      <t>テイギショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面還移図作成</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　機能一覧</t>
     <rPh sb="1" eb="3">
       <t>キノウ</t>
@@ -376,6 +323,17 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面還移図作成</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">終了 </t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -436,7 +394,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFFFF00"/>
+      <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -475,12 +433,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -503,8 +455,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -719,13 +677,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,22 +784,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -792,9 +799,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -864,70 +868,61 @@
     <xf numFmtId="179" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -938,6 +933,51 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1264,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y23" sqref="Y23:AA23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="67" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1278,139 +1318,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="36" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="30" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="27">
+      <c r="AE1" s="27"/>
+      <c r="AF1" s="27"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="23">
         <v>45078</v>
       </c>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-      <c r="AL1" s="28"/>
-      <c r="AM1" s="28"/>
-      <c r="AN1" s="29"/>
+      <c r="AI1" s="24"/>
+      <c r="AJ1" s="24"/>
+      <c r="AK1" s="24"/>
+      <c r="AL1" s="24"/>
+      <c r="AM1" s="24"/>
+      <c r="AN1" s="25"/>
     </row>
     <row r="2" spans="1:59" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="30" t="s">
+      <c r="A2" s="21"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
+      <c r="Z2" s="36"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="27">
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="23">
         <v>45107</v>
       </c>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="29"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="25"/>
     </row>
     <row r="4" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="30"/>
+      <c r="C4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="34" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34" t="s">
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="33" t="s">
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
       <c r="AB4" s="7">
         <f>AH1</f>
         <v>45078</v>
@@ -1535,41 +1575,41 @@
       <c r="BG4" s="3"/>
     </row>
     <row r="5" spans="1:59" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34" t="s">
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34" t="s">
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
+      <c r="W5" s="30"/>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
       <c r="AB5" s="5">
         <f>AH1</f>
         <v>45078</v>
@@ -1692,33 +1732,33 @@
       </c>
     </row>
     <row r="6" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
       <c r="AB6" s="6" t="str">
         <f>TEXT(AB5,"aaa")</f>
         <v>木</v>
@@ -1841,35 +1881,35 @@
       </c>
     </row>
     <row r="7" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="45"/>
-      <c r="T7" s="45"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="45"/>
-      <c r="Y7" s="42"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -1902,41 +1942,41 @@
       <c r="BE7" s="4"/>
     </row>
     <row r="8" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="45">
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="40"/>
+      <c r="O8" s="40"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="41">
         <v>45078</v>
       </c>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45">
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41">
         <v>45078</v>
       </c>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="42" t="s">
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -1969,41 +2009,41 @@
       <c r="BE8" s="4"/>
     </row>
     <row r="9" spans="1:59" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="45">
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="41">
         <v>45078</v>
       </c>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45">
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41">
         <v>45079</v>
       </c>
-      <c r="W9" s="45"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="42" t="s">
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -2036,23 +2076,23 @@
       <c r="BE9" s="4"/>
     </row>
     <row r="10" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+      <c r="AA10" s="38"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="13"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
-      <c r="AF10" s="18"/>
+      <c r="AF10" s="15"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="4"/>
@@ -2080,45 +2120,45 @@
       <c r="BE10" s="4"/>
     </row>
     <row r="11" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="43" t="s">
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="40"/>
+      <c r="O11" s="40"/>
+      <c r="P11" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="45">
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="41">
         <v>45079</v>
       </c>
-      <c r="T11" s="45"/>
-      <c r="U11" s="45"/>
-      <c r="V11" s="45">
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41">
         <v>45082</v>
       </c>
-      <c r="W11" s="45"/>
-      <c r="X11" s="45"/>
-      <c r="Y11" s="42" t="s">
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
       <c r="AB11" s="4"/>
-      <c r="AC11" s="17"/>
+      <c r="AC11" s="14"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AG11" s="4"/>
@@ -2148,43 +2188,43 @@
       <c r="BE11" s="4"/>
     </row>
     <row r="12" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="50" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="47"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="45">
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="41">
         <v>45079</v>
       </c>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45">
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41">
         <v>45082</v>
       </c>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="42" t="s">
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
+      <c r="Z12" s="38"/>
+      <c r="AA12" s="38"/>
       <c r="AB12" s="4"/>
-      <c r="AC12" s="17"/>
+      <c r="AC12" s="14"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
@@ -2215,46 +2255,46 @@
       <c r="BE12" s="4"/>
     </row>
     <row r="13" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="46" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="45">
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="39"/>
+      <c r="S13" s="41">
         <v>45082</v>
       </c>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45">
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41">
         <v>45082</v>
       </c>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="42" t="s">
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
+      <c r="Z13" s="38"/>
+      <c r="AA13" s="38"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
-      <c r="AF13" s="19"/>
+      <c r="AF13" s="77"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
@@ -2282,33 +2322,33 @@
       <c r="BE13" s="4"/>
     </row>
     <row r="14" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="43"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -2341,37 +2381,37 @@
       <c r="BE14" s="4"/>
     </row>
     <row r="15" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43" t="s">
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="45"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -2404,48 +2444,48 @@
       <c r="BE15" s="4"/>
     </row>
     <row r="16" spans="1:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="45">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="41">
         <v>45083</v>
       </c>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="45">
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41">
         <v>45084</v>
       </c>
-      <c r="W16" s="45"/>
-      <c r="X16" s="45"/>
-      <c r="Y16" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="38"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
-      <c r="AG16" s="21"/>
-      <c r="AH16" s="21"/>
+      <c r="AG16" s="78"/>
+      <c r="AH16" s="78"/>
       <c r="AI16" s="4"/>
       <c r="AJ16" s="4"/>
       <c r="AK16" s="4"/>
@@ -2471,48 +2511,48 @@
       <c r="BE16" s="4"/>
     </row>
     <row r="17" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="45">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="41">
         <v>45083</v>
       </c>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45">
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41">
         <v>45084</v>
       </c>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="76">
+        <v>0.8</v>
+      </c>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
-      <c r="AG17" s="21"/>
-      <c r="AH17" s="21"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
       <c r="AI17" s="4"/>
       <c r="AJ17" s="4"/>
       <c r="AK17" s="4"/>
@@ -2538,48 +2578,48 @@
       <c r="BE17" s="4"/>
     </row>
     <row r="18" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="45">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="53"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="41">
         <v>45083</v>
       </c>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45">
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41">
         <v>45084</v>
       </c>
-      <c r="W18" s="45"/>
-      <c r="X18" s="45"/>
-      <c r="Y18" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
-      <c r="AG18" s="21"/>
-      <c r="AH18" s="21"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
       <c r="AI18" s="13"/>
       <c r="AJ18" s="13"/>
       <c r="AK18" s="4"/>
@@ -2605,48 +2645,40 @@
       <c r="BE18" s="4"/>
     </row>
     <row r="19" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="43"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="45">
-        <v>45083</v>
-      </c>
-      <c r="T19" s="45"/>
-      <c r="U19" s="45"/>
-      <c r="V19" s="45">
-        <v>45084</v>
-      </c>
-      <c r="W19" s="45"/>
-      <c r="X19" s="45"/>
-      <c r="Y19" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="68"/>
+      <c r="V19" s="67"/>
+      <c r="W19" s="65"/>
+      <c r="X19" s="68"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="60"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
-      <c r="AG19" s="21"/>
-      <c r="AH19" s="21"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13"/>
       <c r="AI19" s="4"/>
       <c r="AJ19" s="4"/>
       <c r="AK19" s="4"/>
@@ -2672,48 +2704,44 @@
       <c r="BE19" s="4"/>
     </row>
     <row r="20" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="56"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="60"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="45">
-        <v>45083</v>
-      </c>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45">
-        <v>45084</v>
-      </c>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
+      <c r="C20" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
-      <c r="AG20" s="21"/>
-      <c r="AH20" s="21"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13"/>
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
       <c r="AK20" s="4"/>
@@ -2741,48 +2769,48 @@
     <row r="21" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="58"/>
-      <c r="S21" s="45">
-        <v>45083</v>
-      </c>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45">
-        <v>45084</v>
-      </c>
-      <c r="W21" s="45"/>
-      <c r="X21" s="45"/>
-      <c r="Y21" s="42" t="s">
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="41">
+        <v>45085</v>
+      </c>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41">
+        <v>45086</v>
+      </c>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
-      <c r="AG21" s="21"/>
-      <c r="AH21" s="21"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13"/>
+      <c r="AI21" s="16"/>
+      <c r="AJ21" s="16"/>
       <c r="AK21" s="4"/>
       <c r="AL21" s="4"/>
       <c r="AM21" s="4"/>
@@ -2806,50 +2834,50 @@
       <c r="BE21" s="4"/>
     </row>
     <row r="22" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="58"/>
-      <c r="S22" s="45">
-        <v>45083</v>
-      </c>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45">
-        <v>45084</v>
-      </c>
-      <c r="W22" s="45"/>
-      <c r="X22" s="45"/>
-      <c r="Y22" s="42" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="41">
+        <v>45085</v>
+      </c>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41">
+        <v>45086</v>
+      </c>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="42"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
-      <c r="AG22" s="21"/>
-      <c r="AH22" s="21"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13"/>
+      <c r="AI22" s="16"/>
+      <c r="AJ22" s="16"/>
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
       <c r="AM22" s="4"/>
@@ -2873,25 +2901,33 @@
       <c r="BE22" s="4"/>
     </row>
     <row r="23" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="45"/>
-      <c r="Y23" s="42"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="60"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="54"/>
+      <c r="AA23" s="60"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -2924,37 +2960,41 @@
       <c r="BE23" s="4"/>
     </row>
     <row r="24" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="56"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q24" s="43"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="45"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="41">
+        <v>45089</v>
+      </c>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41">
+        <v>45100</v>
+      </c>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -2966,18 +3006,18 @@
       <c r="AJ24" s="13"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
-      <c r="AM24" s="4"/>
-      <c r="AN24" s="4"/>
-      <c r="AO24" s="4"/>
-      <c r="AP24" s="4"/>
-      <c r="AQ24" s="4"/>
-      <c r="AR24" s="4"/>
-      <c r="AS24" s="4"/>
-      <c r="AT24" s="4"/>
-      <c r="AU24" s="4"/>
-      <c r="AV24" s="4"/>
-      <c r="AW24" s="4"/>
-      <c r="AX24" s="4"/>
+      <c r="AM24" s="18"/>
+      <c r="AN24" s="18"/>
+      <c r="AO24" s="18"/>
+      <c r="AP24" s="18"/>
+      <c r="AQ24" s="18"/>
+      <c r="AR24" s="18"/>
+      <c r="AS24" s="18"/>
+      <c r="AT24" s="18"/>
+      <c r="AU24" s="18"/>
+      <c r="AV24" s="18"/>
+      <c r="AW24" s="18"/>
+      <c r="AX24" s="18"/>
       <c r="AY24" s="4"/>
       <c r="AZ24" s="4"/>
       <c r="BA24" s="4"/>
@@ -2987,41 +3027,33 @@
       <c r="BE24" s="4"/>
     </row>
     <row r="25" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="68" t="s">
-        <v>40</v>
-      </c>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="69"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="58"/>
-      <c r="S25" s="45">
-        <v>45085</v>
-      </c>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45">
-        <v>45086</v>
-      </c>
-      <c r="W25" s="45"/>
-      <c r="X25" s="45"/>
-      <c r="Y25" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="42"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="38"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="38"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -3029,8 +3061,8 @@
       <c r="AF25" s="4"/>
       <c r="AG25" s="4"/>
       <c r="AH25" s="4"/>
-      <c r="AI25" s="20"/>
-      <c r="AJ25" s="20"/>
+      <c r="AI25" s="71"/>
+      <c r="AJ25" s="70"/>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
       <c r="AM25" s="4"/>
@@ -3054,41 +3086,33 @@
       <c r="BE25" s="4"/>
     </row>
     <row r="26" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
-      <c r="K26" s="69"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="70"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="45">
-        <v>45085</v>
-      </c>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45">
-        <v>45086</v>
-      </c>
-      <c r="W26" s="45"/>
-      <c r="X26" s="45"/>
-      <c r="Y26" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -3096,8 +3120,7 @@
       <c r="AF26" s="4"/>
       <c r="AG26" s="4"/>
       <c r="AH26" s="4"/>
-      <c r="AI26" s="20"/>
-      <c r="AJ26" s="20"/>
+      <c r="AI26" s="72"/>
       <c r="AK26" s="4"/>
       <c r="AL26" s="4"/>
       <c r="AM26" s="4"/>
@@ -3121,33 +3144,41 @@
       <c r="BE26" s="4"/>
     </row>
     <row r="27" spans="1:57" ht="18.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="56"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="67"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="67"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="60"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="41">
+        <v>45096</v>
+      </c>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41">
+        <v>45100</v>
+      </c>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="38"/>
+      <c r="Z27" s="38"/>
+      <c r="AA27" s="38"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -3180,41 +3211,41 @@
       <c r="BE27" s="4"/>
     </row>
     <row r="28" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="43"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="43"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="45">
-        <v>45089</v>
-      </c>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="45">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="41">
+        <v>45096</v>
+      </c>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41">
         <v>45100</v>
       </c>
-      <c r="W28" s="45"/>
-      <c r="X28" s="45"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="42"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="38"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -3226,18 +3257,17 @@
       <c r="AJ28" s="4"/>
       <c r="AK28" s="4"/>
       <c r="AL28" s="13"/>
-      <c r="AM28" s="22"/>
-      <c r="AN28" s="22"/>
-      <c r="AO28" s="22"/>
-      <c r="AP28" s="22"/>
-      <c r="AQ28" s="22"/>
-      <c r="AR28" s="22"/>
-      <c r="AS28" s="22"/>
-      <c r="AT28" s="22"/>
-      <c r="AU28" s="22"/>
-      <c r="AV28" s="22"/>
-      <c r="AW28" s="22"/>
-      <c r="AX28" s="22"/>
+      <c r="AM28" s="73"/>
+      <c r="AN28" s="74"/>
+      <c r="AO28" s="74"/>
+      <c r="AP28" s="75"/>
+      <c r="AQ28" s="74"/>
+      <c r="AR28" s="74"/>
+      <c r="AS28" s="74"/>
+      <c r="AT28" s="74"/>
+      <c r="AU28" s="74"/>
+      <c r="AV28" s="74"/>
+      <c r="AW28" s="74"/>
       <c r="AY28" s="4"/>
       <c r="AZ28" s="4"/>
       <c r="BA28" s="4"/>
@@ -3247,33 +3277,41 @@
       <c r="BE28" s="4"/>
     </row>
     <row r="29" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="43"/>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="45"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="45"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="42"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="39"/>
+      <c r="P29" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="39"/>
+      <c r="R29" s="39"/>
+      <c r="S29" s="41">
+        <v>45103</v>
+      </c>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41">
+        <v>45105</v>
+      </c>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3306,33 +3344,41 @@
       <c r="BE29" s="4"/>
     </row>
     <row r="30" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="43"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="45"/>
-      <c r="T30" s="45"/>
-      <c r="U30" s="45"/>
-      <c r="V30" s="45"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="45"/>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="42"/>
-      <c r="AA30" s="42"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
+      <c r="S30" s="41">
+        <v>45089</v>
+      </c>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41">
+        <v>45105</v>
+      </c>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="38"/>
+      <c r="Z30" s="38"/>
+      <c r="AA30" s="38"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
@@ -3365,41 +3411,33 @@
       <c r="BE30" s="4"/>
     </row>
     <row r="31" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="45">
-        <v>45096</v>
-      </c>
-      <c r="T31" s="45"/>
-      <c r="U31" s="45"/>
-      <c r="V31" s="45">
-        <v>45100</v>
-      </c>
-      <c r="W31" s="45"/>
-      <c r="X31" s="45"/>
-      <c r="Y31" s="42"/>
-      <c r="Z31" s="42"/>
-      <c r="AA31" s="42"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="38"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="38"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
@@ -3432,41 +3470,35 @@
       <c r="BE31" s="4"/>
     </row>
     <row r="32" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="45">
-        <v>45096</v>
-      </c>
-      <c r="T32" s="45"/>
-      <c r="U32" s="45"/>
-      <c r="V32" s="45">
-        <v>45100</v>
-      </c>
-      <c r="W32" s="45"/>
-      <c r="X32" s="45"/>
-      <c r="Y32" s="42"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="42"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
@@ -3496,44 +3528,36 @@
       <c r="BB32" s="13"/>
       <c r="BC32" s="13"/>
       <c r="BD32" s="13"/>
-      <c r="BE32" s="4"/>
+      <c r="BE32" s="9"/>
     </row>
     <row r="33" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="45">
-        <v>45103</v>
-      </c>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
-      <c r="V33" s="45">
-        <v>45105</v>
-      </c>
-      <c r="W33" s="45"/>
-      <c r="X33" s="45"/>
-      <c r="Y33" s="42"/>
-      <c r="Z33" s="42"/>
-      <c r="AA33" s="42"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="39"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="38"/>
+      <c r="Z33" s="38"/>
+      <c r="AA33" s="38"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
@@ -3563,44 +3587,36 @@
       <c r="BB33" s="13"/>
       <c r="BC33" s="13"/>
       <c r="BD33" s="13"/>
-      <c r="BE33" s="4"/>
+      <c r="BE33" s="73"/>
     </row>
     <row r="34" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="43"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="43"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q34" s="43"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="45">
-        <v>45089</v>
-      </c>
-      <c r="T34" s="45"/>
-      <c r="U34" s="45"/>
-      <c r="V34" s="45">
-        <v>45105</v>
-      </c>
-      <c r="W34" s="45"/>
-      <c r="X34" s="45"/>
-      <c r="Y34" s="42"/>
-      <c r="Z34" s="42"/>
-      <c r="AA34" s="42"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="38"/>
+      <c r="Z34" s="38"/>
+      <c r="AA34" s="38"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
@@ -3633,33 +3649,33 @@
       <c r="BE34" s="4"/>
     </row>
     <row r="35" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="43"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="45"/>
-      <c r="U35" s="45"/>
-      <c r="V35" s="45"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="45"/>
-      <c r="Y35" s="42"/>
-      <c r="Z35" s="42"/>
-      <c r="AA35" s="42"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="39"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="38"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="38"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
@@ -3691,244 +3707,10 @@
       <c r="BD35" s="4"/>
       <c r="BE35" s="4"/>
     </row>
-    <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="43"/>
-      <c r="J36" s="43"/>
-      <c r="K36" s="43"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="43"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="43"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45"/>
-      <c r="V36" s="45"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="42"/>
-      <c r="Z36" s="42"/>
-      <c r="AA36" s="42"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
-      <c r="AE36" s="4"/>
-      <c r="AF36" s="4"/>
-      <c r="AG36" s="4"/>
-      <c r="AH36" s="4"/>
-      <c r="AI36" s="4"/>
-      <c r="AJ36" s="4"/>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="4"/>
-      <c r="AM36" s="4"/>
-      <c r="AN36" s="4"/>
-      <c r="AO36" s="4"/>
-      <c r="AP36" s="4"/>
-      <c r="AQ36" s="4"/>
-      <c r="AR36" s="4"/>
-      <c r="AS36" s="4"/>
-      <c r="AT36" s="4"/>
-      <c r="AU36" s="4"/>
-      <c r="AV36" s="4"/>
-      <c r="AW36" s="4"/>
-      <c r="AX36" s="4"/>
-      <c r="AY36" s="4"/>
-      <c r="AZ36" s="4"/>
-      <c r="BA36" s="4"/>
-      <c r="BB36" s="4"/>
-      <c r="BC36" s="4"/>
-      <c r="BD36" s="4"/>
-      <c r="BE36" s="9"/>
-    </row>
-    <row r="37" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
-      <c r="I37" s="43"/>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="45"/>
-      <c r="U37" s="45"/>
-      <c r="V37" s="45"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="45"/>
-      <c r="Y37" s="42"/>
-      <c r="Z37" s="42"/>
-      <c r="AA37" s="42"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
-      <c r="AD37" s="4"/>
-      <c r="AE37" s="4"/>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="4"/>
-      <c r="AH37" s="4"/>
-      <c r="AI37" s="4"/>
-      <c r="AJ37" s="4"/>
-      <c r="AK37" s="4"/>
-      <c r="AL37" s="4"/>
-      <c r="AM37" s="4"/>
-      <c r="AN37" s="4"/>
-      <c r="AO37" s="4"/>
-      <c r="AP37" s="4"/>
-      <c r="AQ37" s="4"/>
-      <c r="AR37" s="4"/>
-      <c r="AS37" s="4"/>
-      <c r="AT37" s="4"/>
-      <c r="AU37" s="4"/>
-      <c r="AV37" s="4"/>
-      <c r="AW37" s="4"/>
-      <c r="AX37" s="4"/>
-      <c r="AY37" s="4"/>
-      <c r="AZ37" s="4"/>
-      <c r="BA37" s="4"/>
-      <c r="BB37" s="4"/>
-      <c r="BC37" s="4"/>
-      <c r="BD37" s="4"/>
-      <c r="BE37" s="4"/>
-    </row>
-    <row r="38" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
-      <c r="I38" s="43"/>
-      <c r="J38" s="43"/>
-      <c r="K38" s="43"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="45"/>
-      <c r="U38" s="45"/>
-      <c r="V38" s="45"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="45"/>
-      <c r="Y38" s="42"/>
-      <c r="Z38" s="42"/>
-      <c r="AA38" s="42"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
-      <c r="AD38" s="4"/>
-      <c r="AE38" s="4"/>
-      <c r="AF38" s="4"/>
-      <c r="AG38" s="4"/>
-      <c r="AH38" s="4"/>
-      <c r="AI38" s="4"/>
-      <c r="AJ38" s="4"/>
-      <c r="AK38" s="4"/>
-      <c r="AL38" s="4"/>
-      <c r="AM38" s="4"/>
-      <c r="AN38" s="4"/>
-      <c r="AO38" s="4"/>
-      <c r="AP38" s="4"/>
-      <c r="AQ38" s="4"/>
-      <c r="AR38" s="4"/>
-      <c r="AS38" s="4"/>
-      <c r="AT38" s="4"/>
-      <c r="AU38" s="4"/>
-      <c r="AV38" s="4"/>
-      <c r="AW38" s="4"/>
-      <c r="AX38" s="4"/>
-      <c r="AY38" s="4"/>
-      <c r="AZ38" s="4"/>
-      <c r="BA38" s="4"/>
-      <c r="BB38" s="4"/>
-      <c r="BC38" s="4"/>
-      <c r="BD38" s="4"/>
-      <c r="BE38" s="4"/>
-    </row>
-    <row r="39" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="45"/>
-      <c r="T39" s="45"/>
-      <c r="U39" s="45"/>
-      <c r="V39" s="45"/>
-      <c r="W39" s="45"/>
-      <c r="X39" s="45"/>
-      <c r="Y39" s="42"/>
-      <c r="Z39" s="42"/>
-      <c r="AA39" s="42"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
-      <c r="AH39" s="4"/>
-      <c r="AI39" s="4"/>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="4"/>
-      <c r="AL39" s="4"/>
-      <c r="AM39" s="4"/>
-      <c r="AN39" s="4"/>
-      <c r="AO39" s="4"/>
-      <c r="AP39" s="4"/>
-      <c r="AQ39" s="4"/>
-      <c r="AR39" s="4"/>
-      <c r="AS39" s="4"/>
-      <c r="AT39" s="4"/>
-      <c r="AU39" s="4"/>
-      <c r="AV39" s="4"/>
-      <c r="AW39" s="4"/>
-      <c r="AX39" s="4"/>
-      <c r="AY39" s="4"/>
-      <c r="AZ39" s="4"/>
-      <c r="BA39" s="4"/>
-      <c r="BB39" s="4"/>
-      <c r="BC39" s="4"/>
-      <c r="BD39" s="4"/>
-      <c r="BE39" s="4"/>
-    </row>
+    <row r="36" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="41" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3937,17 +3719,16 @@
     <row r="45" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="46" spans="1:57" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="234">
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="H26:O26"/>
+  <mergeCells count="211">
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="H22:O22"/>
     <mergeCell ref="Y12:AA12"/>
     <mergeCell ref="V12:X12"/>
     <mergeCell ref="S12:U12"/>
@@ -3977,145 +3758,123 @@
     <mergeCell ref="S8:U8"/>
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="H37:O37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="S37:U37"/>
-    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="H33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="V33:X33"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:X31"/>
+    <mergeCell ref="H32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:X32"/>
     <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C27:G27"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="H35:O35"/>
     <mergeCell ref="P35:R35"/>
     <mergeCell ref="S35:U35"/>
     <mergeCell ref="V35:X35"/>
-    <mergeCell ref="H36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="S36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:O39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="S39:U39"/>
-    <mergeCell ref="V39:X39"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:O38"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="S38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="V33:X33"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="H32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:X31"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="C32:G32"/>
     <mergeCell ref="Y33:AA33"/>
     <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
     <mergeCell ref="H34:O34"/>
     <mergeCell ref="P34:R34"/>
     <mergeCell ref="S34:U34"/>
     <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C28:G28"/>
     <mergeCell ref="Y29:AA29"/>
     <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
     <mergeCell ref="H30:O30"/>
     <mergeCell ref="P30:R30"/>
     <mergeCell ref="S30:U30"/>
     <mergeCell ref="V30:X30"/>
     <mergeCell ref="Y30:AA30"/>
     <mergeCell ref="A29:B29"/>
-    <mergeCell ref="H29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="H17:O17"/>
     <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
     <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
     <mergeCell ref="S24:U24"/>
     <mergeCell ref="V24:X24"/>
     <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="H20:O20"/>
     <mergeCell ref="S20:U20"/>
     <mergeCell ref="V20:X20"/>
     <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="C21:G21"/>
     <mergeCell ref="H21:O21"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H18:O18"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="P20:R20"/>
     <mergeCell ref="Y18:AA18"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:O17"/>
     <mergeCell ref="P17:R17"/>
     <mergeCell ref="S17:U17"/>
     <mergeCell ref="V17:X17"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="H19:O19"/>
     <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="H16:O16"/>
